--- a/Db_Machines.xlsx
+++ b/Db_Machines.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Desktop\APP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{689E7D1C-98AA-4963-B1F6-5B2A9EACB257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7820CD7-C87D-4B49-8C9D-A5354D3F851D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="25396" windowHeight="15225" xr2:uid="{DB8E0F2E-1A49-404E-B92A-559DC5AF51AF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">Flack </t>
   </si>
@@ -84,19 +84,36 @@
   </si>
   <si>
     <t>Macchina</t>
+  </si>
+  <si>
+    <t>Butoniera</t>
+  </si>
+  <si>
+    <t>Lucru manual</t>
+  </si>
+  <si>
+    <t>Calcat.</t>
+  </si>
+  <si>
+    <t>Capse</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -119,8 +136,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -139,9 +159,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -179,7 +199,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -285,7 +305,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -427,7 +447,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -435,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D325E517-4E22-47BC-9EBE-5CB80213ECA2}">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -526,6 +546,30 @@
         <v>14</v>
       </c>
     </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
